--- a/data/users_rentals.xlsx
+++ b/data/users_rentals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\live_classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Link\Predavanja\Gen 25-26\data_management_and_storage_with_python\sources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637CE1D-5511-4A2F-9EAA-BF011A4801CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343C8DBA-5A49-4F05-8D20-9D309B1F4236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{CD4CE788-E88F-47B0-A58B-0396131885A8}"/>
+    <workbookView xWindow="32160" yWindow="744" windowWidth="23016" windowHeight="15180" xr2:uid="{CD4CE788-E88F-47B0-A58B-0396131885A8}"/>
   </bookViews>
   <sheets>
     <sheet name="users_and_rentals" sheetId="1" r:id="rId1"/>
@@ -4836,7 +4836,7 @@
   <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J294" sqref="J294"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
